--- a/dc-6/DC-6_LVAR_LIST.xlsx
+++ b/dc-6/DC-6_LVAR_LIST.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="153">
   <si>
     <t>Engine 1 Mixture</t>
   </si>
@@ -379,6 +379,102 @@
   </si>
   <si>
     <t>2 = OFF / 1 = ENG 3 &amp; 4 / 0 = ALL ENG</t>
+  </si>
+  <si>
+    <t>Heater Red lever lock</t>
+  </si>
+  <si>
+    <t>Temperature Control</t>
+  </si>
+  <si>
+    <t>AC voltmeter</t>
+  </si>
+  <si>
+    <t>DC Voltmeter</t>
+  </si>
+  <si>
+    <t>Cabin Pressure Regulator</t>
+  </si>
+  <si>
+    <t>Landing lights On/Off</t>
+  </si>
+  <si>
+    <t>Landing lights position</t>
+  </si>
+  <si>
+    <t>Radios/GPS</t>
+  </si>
+  <si>
+    <t>First Officer's Map White Light</t>
+  </si>
+  <si>
+    <t>First Officer's Flight Inst Red Light</t>
+  </si>
+  <si>
+    <t>Engine 1 CO2 Selector Valve Handle</t>
+  </si>
+  <si>
+    <t>Engine 2 CO2 Selector Valve Handle</t>
+  </si>
+  <si>
+    <t>Engine 3 CO2 Selector Valve Handle</t>
+  </si>
+  <si>
+    <t>Engine 4 CO2 Selector Valve Handle</t>
+  </si>
+  <si>
+    <t>CO2 Discharge Handle (Right Bank)</t>
+  </si>
+  <si>
+    <t>CO2 Discharge Handle (Left Bank)</t>
+  </si>
+  <si>
+    <t>Flight Instruments</t>
+  </si>
+  <si>
+    <t>Gyro Heading Increase/Decrease</t>
+  </si>
+  <si>
+    <t>Directional Gyro Slaving Cutoff</t>
+  </si>
+  <si>
+    <t>Bendix KDI572 DME Receiver</t>
+  </si>
+  <si>
+    <t>Entrance Light</t>
+  </si>
+  <si>
+    <t>Main Box Flood Light</t>
+  </si>
+  <si>
+    <t>Emer Lts No Smoking</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>Posittion Flash</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>Beacon</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>Wing Illmu</t>
+  </si>
+  <si>
+    <t>042</t>
   </si>
 </sst>
 </file>
@@ -522,6 +618,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,14 +640,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,65 +935,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q74"/>
+  <dimension ref="B2:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="2.140625" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="34.140625" customWidth="1"/>
     <col min="9" max="9" width="2.5703125" customWidth="1"/>
     <col min="10" max="10" width="42.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="12" width="66.42578125" customWidth="1"/>
     <col min="15" max="15" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="21">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="2:17" ht="18.75">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="6" spans="2:17" ht="21">
       <c r="B6" s="8" t="s">
@@ -976,78 +1074,124 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:17" ht="18.75">
+    <row r="11" spans="2:17" ht="15.75">
       <c r="B11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>512</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11">
+        <v>121</v>
+      </c>
       <c r="L11" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="18.75">
+    <row r="12" spans="2:17" ht="15.75">
       <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="1">
         <v>513</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="1">
+        <v>122</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="L12" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="18.75">
+    <row r="13" spans="2:17" ht="15.75">
       <c r="B13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="1">
         <v>514</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="1">
+        <v>709</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:17" ht="18.75">
       <c r="B14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="1">
+        <v>699</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="L14" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="21">
         <v>51808</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="20" t="s">
         <v>105</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="L15" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="21">
         <v>51807</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="20" t="s">
         <v>105</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" ht="15.75">
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="L17" s="18" t="s">
@@ -1084,8 +1228,12 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
@@ -1099,8 +1247,12 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="L20" s="18" t="s">
@@ -1116,8 +1268,12 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="L21" s="1" t="s">
@@ -1197,12 +1353,12 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
       <c r="L26" s="18" t="s">
         <v>99</v>
       </c>
@@ -1212,14 +1368,14 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="21">
         <v>44001</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
       <c r="L27" s="1" t="s">
         <v>103</v>
       </c>
@@ -1235,14 +1391,14 @@
       <c r="E28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="21">
         <v>44002</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:12" ht="15.75">
       <c r="B29" s="4" t="s">
@@ -1253,14 +1409,14 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="21">
         <v>43601</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:12" ht="15.75">
       <c r="B30" s="4" t="s">
@@ -1271,14 +1427,14 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="21">
         <v>44501</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:12" ht="15.75">
       <c r="B31" s="4" t="s">
@@ -1289,28 +1445,28 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="21">
         <v>44502</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:12" ht="15.75">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="21">
         <v>44201</v>
       </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" ht="15.75">
       <c r="B33" s="4" t="s">
@@ -1323,14 +1479,14 @@
       <c r="E33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="21">
         <v>44202</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" ht="15.75">
       <c r="B34" s="4" t="s">
@@ -1341,14 +1497,14 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="21">
         <v>44220</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" ht="15.75">
       <c r="B35" s="4" t="s">
@@ -1359,14 +1515,14 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="21">
         <v>43401</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" ht="15.75">
       <c r="B36" s="4" t="s">
@@ -1377,14 +1533,14 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="21">
         <v>40401</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" ht="15.75">
       <c r="B37" s="1"/>
@@ -1714,7 +1870,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="2:10" ht="15.75">
+    <row r="59" spans="2:10" ht="18.75">
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
@@ -1723,10 +1879,12 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="G59" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
     </row>
     <row r="60" spans="2:10" ht="15.75">
       <c r="B60" s="1" t="s">
@@ -1772,7 +1930,7 @@
     <row r="64" spans="2:10" ht="15.75">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:5" ht="15.75">
+    <row r="65" spans="2:10" ht="15.75">
       <c r="B65" s="4" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +1941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="15.75">
+    <row r="66" spans="2:10" ht="15.75">
       <c r="B66" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,7 +1952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="15.75">
+    <row r="67" spans="2:10" ht="15.75">
       <c r="B67" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,7 +1961,7 @@
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="2:5" ht="15.75">
+    <row r="68" spans="2:10" ht="15.75">
       <c r="B68" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,7 +1970,7 @@
       </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="2:5" ht="15.75">
+    <row r="69" spans="2:10" ht="15.75">
       <c r="B69" s="1" t="s">
         <v>37</v>
       </c>
@@ -1820,52 +1978,357 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="15.75">
+    <row r="70" spans="2:10" ht="18.75">
       <c r="B70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="1">
+        <v>215</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="2:10" ht="15.75">
+      <c r="B71" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C71" s="1">
         <v>398</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" ht="15.75">
-      <c r="B71" s="1" t="s">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="2:10" ht="15.75">
+      <c r="B72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" ht="15.75">
-      <c r="B72" s="1"/>
-      <c r="E72" s="10"/>
-    </row>
-    <row r="73" spans="2:5" ht="15.75">
-      <c r="B73" s="26" t="s">
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="2:10" ht="15.75">
+      <c r="B73" s="1"/>
+      <c r="E73" s="10"/>
+      <c r="G73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H73" s="1">
+        <v>303</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="2:10" ht="15.75">
+      <c r="B74" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C74" s="21">
         <v>41907</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="25" t="s">
+      <c r="D74" s="19"/>
+      <c r="E74" s="20" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" ht="15.75">
-      <c r="B74" s="26" t="s">
+      <c r="G74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H74" s="1">
+        <v>304</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="2:10" ht="15.75">
+      <c r="B75" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C74" s="26">
+      <c r="C75" s="21">
         <v>41908</v>
       </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="25" t="s">
+      <c r="D75" s="19"/>
+      <c r="E75" s="20" t="s">
         <v>105</v>
       </c>
+      <c r="G75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H75" s="1">
+        <v>271</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="2:10" ht="15.75">
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="2:10" ht="15.75">
+      <c r="B77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="1">
+        <v>222</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="2:10" ht="15.75">
+      <c r="B78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="1">
+        <v>233</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="2:10" ht="15.75">
+      <c r="B79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="1">
+        <v>236</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="2:10" ht="15.75">
+      <c r="B80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="1">
+        <v>248</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="2:10" ht="15.75">
+      <c r="B81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="1">
+        <v>247</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="2:10" ht="15.75">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="2:10" ht="15.75">
+      <c r="B83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="1">
+        <v>259</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75">
+      <c r="B84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="1">
+        <v>262</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75">
+      <c r="B85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="1">
+        <v>263</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="2:10" ht="15.75">
+      <c r="B86" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="1">
+        <v>265</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="2:10" ht="15.75">
+      <c r="B87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="1">
+        <v>266</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="2:10" ht="15.75">
+      <c r="B88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="1">
+        <v>269</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="2:10" ht="15.75">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="2:10" ht="15.75">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="2:10" ht="15.75">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="2:10" ht="15.75">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="2:10" ht="15.75">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="2:10" ht="15.75">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="2:10" ht="15.75">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/dc-6/DC-6_LVAR_LIST.xlsx
+++ b/dc-6/DC-6_LVAR_LIST.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="185">
   <si>
     <t>Engine 1 Mixture</t>
   </si>
@@ -475,13 +475,112 @@
   </si>
   <si>
     <t>042</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>Generator Control 1</t>
+  </si>
+  <si>
+    <t>Generator Control 2</t>
+  </si>
+  <si>
+    <t>Generator Control 3</t>
+  </si>
+  <si>
+    <t>Generator Control 4</t>
+  </si>
+  <si>
+    <t>Wheel Well Lights</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>Engine Inst</t>
+  </si>
+  <si>
+    <t>Inverters 1</t>
+  </si>
+  <si>
+    <t>Inverters 2</t>
+  </si>
+  <si>
+    <t>Feather 1</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>Feather 2</t>
+  </si>
+  <si>
+    <t>Feather 3</t>
+  </si>
+  <si>
+    <t>Feather 4</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>Water Injection Pump 1</t>
+  </si>
+  <si>
+    <t>Water Injection Pump 2</t>
+  </si>
+  <si>
+    <t>Water Injection Pump 3</t>
+  </si>
+  <si>
+    <t>Water Injection Pump 4</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +642,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -573,10 +679,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -641,8 +748,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -935,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q95"/>
+  <dimension ref="B2:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1285,8 +1401,12 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
@@ -1630,13 +1750,15 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="2:10" ht="18.75">
-      <c r="B43" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+    <row r="43" spans="2:10" ht="15.75">
+      <c r="B43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
       <c r="G43" s="1" t="s">
         <v>74</v>
       </c>
@@ -1646,11 +1768,15 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="2:10" ht="18.75">
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+    <row r="44" spans="2:10" ht="15.75">
+      <c r="B44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
       <c r="G44" s="1" t="s">
         <v>75</v>
       </c>
@@ -1662,15 +1788,13 @@
     </row>
     <row r="45" spans="2:10" ht="15.75">
       <c r="B45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="1">
-        <v>520</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="7" t="s">
-        <v>89</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1678,13 +1802,13 @@
     </row>
     <row r="46" spans="2:10" ht="15.75">
       <c r="B46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1">
-        <v>521</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
       <c r="G46" s="1" t="s">
         <v>79</v>
       </c>
@@ -1695,28 +1819,20 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10" ht="15.75">
-      <c r="B47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="1">
-        <v>522</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="15.75">
-      <c r="B48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="1">
-        <v>523</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
       <c r="G48" s="1" t="s">
         <v>81</v>
       </c>
@@ -1728,9 +1844,9 @@
     </row>
     <row r="49" spans="2:10" ht="15.75">
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
       <c r="G49" s="1" t="s">
         <v>82</v>
       </c>
@@ -1741,16 +1857,10 @@
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="2:10" ht="15.75">
-      <c r="B50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="1">
-        <v>539</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="G50" s="1" t="s">
         <v>83</v>
       </c>
@@ -1760,24 +1870,20 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="2:10" ht="15.75">
-      <c r="B51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="1">
-        <v>540</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="3" t="s">
-        <v>120</v>
-      </c>
+    <row r="51" spans="2:10" ht="18.75">
+      <c r="B51" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="2:10" ht="15.75">
-      <c r="B52" s="1"/>
+    <row r="52" spans="2:10" ht="18.75">
+      <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1792,13 +1898,15 @@
     </row>
     <row r="53" spans="2:10" ht="15.75">
       <c r="B53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="C53" s="1">
+        <v>520</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -1806,346 +1914,368 @@
     </row>
     <row r="54" spans="2:10" ht="15.75">
       <c r="B54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="C54" s="1">
+        <v>521</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>153</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="2:10" ht="15.75">
       <c r="B55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="C55" s="1">
+        <v>522</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="2:10" ht="15.75">
       <c r="B56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="C56" s="1">
+        <v>523</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="2:10" ht="15.75">
       <c r="B57" s="1"/>
-      <c r="C57" s="12"/>
+      <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="2:10" ht="15.75">
       <c r="B58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="C58" s="1">
+        <v>539</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="11"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="2:10" ht="18.75">
+    <row r="59" spans="2:10" ht="15.75">
       <c r="B59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="C59" s="1">
+        <v>540</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="G59" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
+      <c r="E59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
     <row r="60" spans="2:10" ht="15.75">
-      <c r="B60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="2:10" ht="15.75">
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="2:10" ht="15.75">
-      <c r="B62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="2:10" ht="18.75">
-      <c r="B63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="16"/>
+      <c r="G62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="2:10" ht="15.75">
+      <c r="B63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
     </row>
     <row r="64" spans="2:10" ht="15.75">
-      <c r="B64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
     </row>
     <row r="65" spans="2:10" ht="15.75">
-      <c r="B65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="4">
-        <v>415</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
     </row>
     <row r="66" spans="2:10" ht="15.75">
-      <c r="B66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="1">
-        <v>173</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
     <row r="67" spans="2:10" ht="15.75">
       <c r="B67" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="1">
-        <v>217</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="2:10" ht="15.75">
       <c r="B68" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="1">
-        <v>214</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="2:10" ht="15.75">
+      <c r="G68" s="1"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="2:10" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" s="1">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" ht="18.75">
+        <v>59</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="G69" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H69" s="31"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="2:10" ht="15.75">
       <c r="B70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="1">
-        <v>215</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
     </row>
     <row r="71" spans="2:10" ht="15.75">
-      <c r="B71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" s="1">
-        <v>398</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="B71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="H71" s="11"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="2:10" ht="15.75">
-      <c r="B72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+    <row r="72" spans="2:10" ht="18.75">
+      <c r="B72" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="16"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="2:10" ht="15.75">
       <c r="B73" s="1"/>
-      <c r="E73" s="10"/>
-      <c r="G73" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H73" s="1">
-        <v>303</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="2:10" ht="15.75">
-      <c r="B74" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="21">
-        <v>41907</v>
-      </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H74" s="1">
-        <v>304</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="B74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="4">
+        <v>415</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" spans="2:10" ht="15.75">
-      <c r="B75" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" s="21">
-        <v>41908</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H75" s="1">
-        <v>271</v>
-      </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="1">
+        <v>173</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" spans="2:10" ht="15.75">
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="1">
+        <v>217</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="2:10" ht="15.75">
       <c r="B77" s="1" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="C77" s="1">
-        <v>222</v>
-      </c>
-      <c r="D77" s="1"/>
+        <v>214</v>
+      </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" spans="2:10" ht="15.75">
       <c r="B78" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="C78" s="1">
-        <v>233</v>
-      </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+        <v>216</v>
+      </c>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="2:10" ht="15.75">
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C79" s="1">
-        <v>236</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+        <v>215</v>
+      </c>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="2:10" ht="15.75">
+    </row>
+    <row r="80" spans="2:10" ht="18.75">
       <c r="B80" s="1" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="C80" s="1">
-        <v>248</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+        <v>398</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="G80" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
     </row>
     <row r="81" spans="2:10" ht="15.75">
       <c r="B81" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" s="1">
-        <v>247</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -2154,9 +2284,7 @@
     </row>
     <row r="82" spans="2:10" ht="15.75">
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="10"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2164,56 +2292,64 @@
       <c r="J82" s="1"/>
     </row>
     <row r="83" spans="2:10" ht="15.75">
-      <c r="B83" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" s="1">
-        <v>259</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="B83" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="21">
+        <v>41907</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H83" s="1">
+        <v>303</v>
+      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
     <row r="84" spans="2:10" ht="15.75">
-      <c r="B84" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C84" s="1">
-        <v>262</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="B84" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="21">
+        <v>41908</v>
+      </c>
+      <c r="D84" s="19"/>
+      <c r="E84" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H84" s="1">
+        <v>304</v>
+      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="2:10" ht="15.75">
-      <c r="B85" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C85" s="1">
-        <v>263</v>
-      </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H85" s="1">
+        <v>271</v>
+      </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="2:10" ht="15.75">
       <c r="B86" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C86" s="1">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2225,10 +2361,10 @@
     </row>
     <row r="87" spans="2:10" ht="15.75">
       <c r="B87" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C87" s="1">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2240,10 +2376,10 @@
     </row>
     <row r="88" spans="2:10" ht="15.75">
       <c r="B88" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C88" s="1">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2254,8 +2390,12 @@
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="2:10" ht="15.75">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="1">
+        <v>248</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -2265,8 +2405,12 @@
       <c r="J89" s="1"/>
     </row>
     <row r="90" spans="2:10" ht="15.75">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="1">
+        <v>247</v>
+      </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2287,8 +2431,12 @@
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="2:10" ht="15.75">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="1">
+        <v>259</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2298,8 +2446,12 @@
       <c r="J92" s="1"/>
     </row>
     <row r="93" spans="2:10" ht="15.75">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="1">
+        <v>262</v>
+      </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2309,8 +2461,12 @@
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="2:10" ht="15.75">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="1">
+        <v>263</v>
+      </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2320,8 +2476,12 @@
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="2:10" ht="15.75">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="1">
+        <v>265</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2329,6 +2489,131 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="2:10" ht="15.75">
+      <c r="B96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="1">
+        <v>266</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="2:10" ht="15.75">
+      <c r="B97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="1">
+        <v>269</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="2:10" ht="15.75">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="2:10" ht="15.75">
+      <c r="B99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="2:10" ht="15.75">
+      <c r="B100" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="2:10" ht="15.75">
+      <c r="B101" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="2:10" ht="15.75">
+      <c r="B102" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="2:10" ht="15.75">
+      <c r="B103" s="1"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="2:10" ht="15.75">
+      <c r="B104" s="1"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="2:10" ht="15.75">
+      <c r="C105" s="30"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="C106" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2339,7 +2624,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C53:C56 C58:C61 H41:H44 H46 H52 H50 H18" numberStoredAsText="1"/>
+    <ignoredError sqref="C61:C64 C67:C70 H41:H44 H46 H52 H50 H18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
